--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109815.5605152772</v>
+        <v>19682551.97315248</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109815.5605152772</v>
+        <v>19682551.97315248</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>309279.4616744428</v>
+        <v>37561500.19030354</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>309279.4616744428</v>
+        <v>37561500.19030354</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1602540693.055652</v>
+        <v>16443399.63501282</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19606.45125955429</v>
+        <v>492554.2319840519</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38236.50089236136</v>
+        <v>837342.1943728891</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>56997.62081048766</v>
+        <v>1182130.156761725</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>75977.45838417071</v>
+        <v>1463007.074588653</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>95098.67667393498</v>
+        <v>1763057.305784159</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>114215.6216991131</v>
+        <v>2063107.536979671</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>133326.156827412</v>
+        <v>2363157.768175178</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>152447.3751171762</v>
+        <v>2663207.999370688</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>171568.5934069404</v>
+        <v>2963258.230566202</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>190662.854514344</v>
+        <v>3268973.095688076</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>209744.0746444814</v>
+        <v>3572988.570632039</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>228815.200302257</v>
+        <v>3877004.045576007</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>247891.3731962137</v>
+        <v>4181019.520519975</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>268293.33850404</v>
+        <v>4063057.361537546</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>289541.4030663945</v>
+        <v>4059358.30531091</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>35</v>
@@ -27055,10 +27055,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>35</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
